--- a/schedule_info.xlsx
+++ b/schedule_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,242 +439,6 @@
           <t>Employee</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-02</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-03</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-04</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-05</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-06</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-07</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-08</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-09</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-10</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-11</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-12</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-13</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-14</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-15</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-16</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-17</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-18</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-19</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-20</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-21</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-22</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-23</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-24</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-25</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-26</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-27</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-28</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-29</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>2024-04-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>hehe</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ca sáng</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>chieu</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>jkyhkjh</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>chieu</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/schedule_info.xlsx
+++ b/schedule_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,240 +441,159 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-04-11</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-04</t>
+          <t>2024-04-12</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-05</t>
+          <t>2024-04-13</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-06</t>
+          <t>2024-04-14</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-07</t>
+          <t>2024-04-15</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-04-16</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-04-17</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-04-18</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-11</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>2024-04-20</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2024-04-21</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-14</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-15</t>
+          <t>2024-04-23</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-17</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-04-27</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-20</t>
+          <t>2024-04-28</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-21</t>
+          <t>2024-04-29</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-04-30</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-23</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-05-04</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-27</t>
+          <t>2024-05-05</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-28</t>
+          <t>2024-05-06</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-29</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>2024-04-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>hehe</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ca sáng</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>chieu</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>jkyhkjh</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>chieu</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/schedule_info.xlsx
+++ b/schedule_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:JR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +439,1971 @@
           <t>Employee</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-23</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-24</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-25</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-26</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-27</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-28</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-31</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-03</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-04</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-06</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-07</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-08</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-09</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-10</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-11</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-13</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-14</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-16</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-17</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-18</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-24</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-25</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-02</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-03</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-09</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-10</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-30</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-31</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-02</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-03</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-05</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-06</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-07</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-09</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-10</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-11</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-12</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-14</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-17</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-18</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-20</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-21</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-24</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-25</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-26</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-27</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-28</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-29</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-04</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-12</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-19</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-24</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-25</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-26</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-29</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-30</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-01</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-02</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-03</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-05</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-06</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-07</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-11</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-12</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-13</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-14</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-15</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-16</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-22</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-23</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-29</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-06</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-07</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-13</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-14</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-15</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-22</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-27</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-06</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-07</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-08</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-09</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-10</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-15</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-18</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-21</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-22</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-23</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-24</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-07</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-08</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-14</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-21</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-22</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-28</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-29</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-05</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-06</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-12</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-13</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-20</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>hehe</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t>ca sáng</t>
+        </is>
+      </c>
+      <c r="CA2" t="inlineStr">
+        <is>
+          <t>chieu</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2" t="inlineStr"/>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2" t="inlineStr"/>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr"/>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2" t="inlineStr"/>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2" t="inlineStr"/>
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2" t="inlineStr"/>
+      <c r="DA2" t="inlineStr"/>
+      <c r="DB2" t="inlineStr"/>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2" t="inlineStr"/>
+      <c r="DE2" t="inlineStr"/>
+      <c r="DF2" t="inlineStr"/>
+      <c r="DG2" t="inlineStr"/>
+      <c r="DH2" t="inlineStr"/>
+      <c r="DI2" t="inlineStr"/>
+      <c r="DJ2" t="inlineStr"/>
+      <c r="DK2" t="inlineStr"/>
+      <c r="DL2" t="inlineStr"/>
+      <c r="DM2" t="inlineStr"/>
+      <c r="DN2" t="inlineStr"/>
+      <c r="DO2" t="inlineStr"/>
+      <c r="DP2" t="inlineStr"/>
+      <c r="DQ2" t="inlineStr"/>
+      <c r="DR2" t="inlineStr"/>
+      <c r="DS2" t="inlineStr"/>
+      <c r="DT2" t="inlineStr"/>
+      <c r="DU2" t="inlineStr"/>
+      <c r="DV2" t="inlineStr"/>
+      <c r="DW2" t="inlineStr"/>
+      <c r="DX2" t="inlineStr"/>
+      <c r="DY2" t="inlineStr"/>
+      <c r="DZ2" t="inlineStr"/>
+      <c r="EA2" t="inlineStr"/>
+      <c r="EB2" t="inlineStr"/>
+      <c r="EC2" t="inlineStr"/>
+      <c r="ED2" t="inlineStr"/>
+      <c r="EE2" t="inlineStr"/>
+      <c r="EF2" t="inlineStr"/>
+      <c r="EG2" t="inlineStr"/>
+      <c r="EH2" t="inlineStr"/>
+      <c r="EI2" t="inlineStr"/>
+      <c r="EJ2" t="inlineStr"/>
+      <c r="EK2" t="inlineStr"/>
+      <c r="EL2" t="inlineStr"/>
+      <c r="EM2" t="inlineStr"/>
+      <c r="EN2" t="inlineStr"/>
+      <c r="EO2" t="inlineStr"/>
+      <c r="EP2" t="inlineStr"/>
+      <c r="EQ2" t="inlineStr"/>
+      <c r="ER2" t="inlineStr"/>
+      <c r="ES2" t="inlineStr"/>
+      <c r="ET2" t="inlineStr"/>
+      <c r="EU2" t="inlineStr"/>
+      <c r="EV2" t="inlineStr"/>
+      <c r="EW2" t="inlineStr"/>
+      <c r="EX2" t="inlineStr"/>
+      <c r="EY2" t="inlineStr"/>
+      <c r="EZ2" t="inlineStr"/>
+      <c r="FA2" t="inlineStr"/>
+      <c r="FB2" t="inlineStr"/>
+      <c r="FC2" t="inlineStr"/>
+      <c r="FD2" t="inlineStr"/>
+      <c r="FE2" t="inlineStr"/>
+      <c r="FF2" t="inlineStr"/>
+      <c r="FG2" t="inlineStr"/>
+      <c r="FH2" t="inlineStr"/>
+      <c r="FI2" t="inlineStr"/>
+      <c r="FJ2" t="inlineStr"/>
+      <c r="FK2" t="inlineStr"/>
+      <c r="FL2" t="inlineStr"/>
+      <c r="FM2" t="inlineStr"/>
+      <c r="FN2" t="inlineStr"/>
+      <c r="FO2" t="inlineStr"/>
+      <c r="FP2" t="inlineStr"/>
+      <c r="FQ2" t="inlineStr"/>
+      <c r="FR2" t="inlineStr"/>
+      <c r="FS2" t="inlineStr"/>
+      <c r="FT2" t="inlineStr"/>
+      <c r="FU2" t="inlineStr"/>
+      <c r="FV2" t="inlineStr"/>
+      <c r="FW2" t="inlineStr"/>
+      <c r="FX2" t="inlineStr"/>
+      <c r="FY2" t="inlineStr"/>
+      <c r="FZ2" t="inlineStr"/>
+      <c r="GA2" t="inlineStr"/>
+      <c r="GB2" t="inlineStr"/>
+      <c r="GC2" t="inlineStr"/>
+      <c r="GD2" t="inlineStr"/>
+      <c r="GE2" t="inlineStr"/>
+      <c r="GF2" t="inlineStr"/>
+      <c r="GG2" t="inlineStr"/>
+      <c r="GH2" t="inlineStr"/>
+      <c r="GI2" t="inlineStr"/>
+      <c r="GJ2" t="inlineStr"/>
+      <c r="GK2" t="inlineStr"/>
+      <c r="GL2" t="inlineStr"/>
+      <c r="GM2" t="inlineStr"/>
+      <c r="GN2" t="inlineStr"/>
+      <c r="GO2" t="inlineStr"/>
+      <c r="GP2" t="inlineStr"/>
+      <c r="GQ2" t="inlineStr"/>
+      <c r="GR2" t="inlineStr"/>
+      <c r="GS2" t="inlineStr"/>
+      <c r="GT2" t="inlineStr"/>
+      <c r="GU2" t="inlineStr"/>
+      <c r="GV2" t="inlineStr"/>
+      <c r="GW2" t="inlineStr"/>
+      <c r="GX2" t="inlineStr"/>
+      <c r="GY2" t="inlineStr"/>
+      <c r="GZ2" t="inlineStr"/>
+      <c r="HA2" t="inlineStr"/>
+      <c r="HB2" t="inlineStr"/>
+      <c r="HC2" t="inlineStr"/>
+      <c r="HD2" t="inlineStr"/>
+      <c r="HE2" t="inlineStr"/>
+      <c r="HF2" t="inlineStr"/>
+      <c r="HG2" t="inlineStr"/>
+      <c r="HH2" t="inlineStr"/>
+      <c r="HI2" t="inlineStr"/>
+      <c r="HJ2" t="inlineStr"/>
+      <c r="HK2" t="inlineStr"/>
+      <c r="HL2" t="inlineStr"/>
+      <c r="HM2" t="inlineStr"/>
+      <c r="HN2" t="inlineStr"/>
+      <c r="HO2" t="inlineStr"/>
+      <c r="HP2" t="inlineStr"/>
+      <c r="HQ2" t="inlineStr"/>
+      <c r="HR2" t="inlineStr"/>
+      <c r="HS2" t="inlineStr"/>
+      <c r="HT2" t="inlineStr"/>
+      <c r="HU2" t="inlineStr"/>
+      <c r="HV2" t="inlineStr"/>
+      <c r="HW2" t="inlineStr"/>
+      <c r="HX2" t="inlineStr"/>
+      <c r="HY2" t="inlineStr"/>
+      <c r="HZ2" t="inlineStr"/>
+      <c r="IA2" t="inlineStr"/>
+      <c r="IB2" t="inlineStr"/>
+      <c r="IC2" t="inlineStr"/>
+      <c r="ID2" t="inlineStr"/>
+      <c r="IE2" t="inlineStr"/>
+      <c r="IF2" t="inlineStr"/>
+      <c r="IG2" t="inlineStr"/>
+      <c r="IH2" t="inlineStr"/>
+      <c r="II2" t="inlineStr"/>
+      <c r="IJ2" t="inlineStr"/>
+      <c r="IK2" t="inlineStr"/>
+      <c r="IL2" t="inlineStr"/>
+      <c r="IM2" t="inlineStr"/>
+      <c r="IN2" t="inlineStr"/>
+      <c r="IO2" t="inlineStr"/>
+      <c r="IP2" t="inlineStr"/>
+      <c r="IQ2" t="inlineStr"/>
+      <c r="IR2" t="inlineStr"/>
+      <c r="IS2" t="inlineStr"/>
+      <c r="IT2" t="inlineStr"/>
+      <c r="IU2" t="inlineStr"/>
+      <c r="IV2" t="inlineStr"/>
+      <c r="IW2" t="inlineStr"/>
+      <c r="IX2" t="inlineStr"/>
+      <c r="IY2" t="inlineStr"/>
+      <c r="IZ2" t="inlineStr"/>
+      <c r="JA2" t="inlineStr"/>
+      <c r="JB2" t="inlineStr"/>
+      <c r="JC2" t="inlineStr"/>
+      <c r="JD2" t="inlineStr"/>
+      <c r="JE2" t="inlineStr"/>
+      <c r="JF2" t="inlineStr"/>
+      <c r="JG2" t="inlineStr"/>
+      <c r="JH2" t="inlineStr"/>
+      <c r="JI2" t="inlineStr"/>
+      <c r="JJ2" t="inlineStr"/>
+      <c r="JK2" t="inlineStr"/>
+      <c r="JL2" t="inlineStr"/>
+      <c r="JM2" t="inlineStr"/>
+      <c r="JN2" t="inlineStr"/>
+      <c r="JO2" t="inlineStr"/>
+      <c r="JP2" t="inlineStr"/>
+      <c r="JQ2" t="inlineStr"/>
+      <c r="JR2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>jkyhkjh</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr">
+        <is>
+          <t>chieu</t>
+        </is>
+      </c>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="inlineStr"/>
+      <c r="CC3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="inlineStr"/>
+      <c r="CH3" t="inlineStr"/>
+      <c r="CI3" t="inlineStr"/>
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr"/>
+      <c r="CM3" t="inlineStr"/>
+      <c r="CN3" t="inlineStr"/>
+      <c r="CO3" t="inlineStr"/>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="inlineStr"/>
+      <c r="CY3" t="inlineStr"/>
+      <c r="CZ3" t="inlineStr"/>
+      <c r="DA3" t="inlineStr"/>
+      <c r="DB3" t="inlineStr"/>
+      <c r="DC3" t="inlineStr"/>
+      <c r="DD3" t="inlineStr"/>
+      <c r="DE3" t="inlineStr"/>
+      <c r="DF3" t="inlineStr"/>
+      <c r="DG3" t="inlineStr"/>
+      <c r="DH3" t="inlineStr"/>
+      <c r="DI3" t="inlineStr"/>
+      <c r="DJ3" t="inlineStr"/>
+      <c r="DK3" t="inlineStr"/>
+      <c r="DL3" t="inlineStr"/>
+      <c r="DM3" t="inlineStr"/>
+      <c r="DN3" t="inlineStr"/>
+      <c r="DO3" t="inlineStr"/>
+      <c r="DP3" t="inlineStr"/>
+      <c r="DQ3" t="inlineStr"/>
+      <c r="DR3" t="inlineStr"/>
+      <c r="DS3" t="inlineStr"/>
+      <c r="DT3" t="inlineStr"/>
+      <c r="DU3" t="inlineStr"/>
+      <c r="DV3" t="inlineStr"/>
+      <c r="DW3" t="inlineStr"/>
+      <c r="DX3" t="inlineStr"/>
+      <c r="DY3" t="inlineStr"/>
+      <c r="DZ3" t="inlineStr"/>
+      <c r="EA3" t="inlineStr"/>
+      <c r="EB3" t="inlineStr"/>
+      <c r="EC3" t="inlineStr"/>
+      <c r="ED3" t="inlineStr"/>
+      <c r="EE3" t="inlineStr"/>
+      <c r="EF3" t="inlineStr"/>
+      <c r="EG3" t="inlineStr"/>
+      <c r="EH3" t="inlineStr"/>
+      <c r="EI3" t="inlineStr"/>
+      <c r="EJ3" t="inlineStr"/>
+      <c r="EK3" t="inlineStr"/>
+      <c r="EL3" t="inlineStr"/>
+      <c r="EM3" t="inlineStr"/>
+      <c r="EN3" t="inlineStr"/>
+      <c r="EO3" t="inlineStr"/>
+      <c r="EP3" t="inlineStr"/>
+      <c r="EQ3" t="inlineStr"/>
+      <c r="ER3" t="inlineStr"/>
+      <c r="ES3" t="inlineStr"/>
+      <c r="ET3" t="inlineStr"/>
+      <c r="EU3" t="inlineStr"/>
+      <c r="EV3" t="inlineStr"/>
+      <c r="EW3" t="inlineStr"/>
+      <c r="EX3" t="inlineStr"/>
+      <c r="EY3" t="inlineStr"/>
+      <c r="EZ3" t="inlineStr"/>
+      <c r="FA3" t="inlineStr"/>
+      <c r="FB3" t="inlineStr"/>
+      <c r="FC3" t="inlineStr"/>
+      <c r="FD3" t="inlineStr"/>
+      <c r="FE3" t="inlineStr"/>
+      <c r="FF3" t="inlineStr"/>
+      <c r="FG3" t="inlineStr"/>
+      <c r="FH3" t="inlineStr"/>
+      <c r="FI3" t="inlineStr"/>
+      <c r="FJ3" t="inlineStr"/>
+      <c r="FK3" t="inlineStr"/>
+      <c r="FL3" t="inlineStr"/>
+      <c r="FM3" t="inlineStr"/>
+      <c r="FN3" t="inlineStr"/>
+      <c r="FO3" t="inlineStr"/>
+      <c r="FP3" t="inlineStr"/>
+      <c r="FQ3" t="inlineStr"/>
+      <c r="FR3" t="inlineStr"/>
+      <c r="FS3" t="inlineStr"/>
+      <c r="FT3" t="inlineStr"/>
+      <c r="FU3" t="inlineStr"/>
+      <c r="FV3" t="inlineStr"/>
+      <c r="FW3" t="inlineStr"/>
+      <c r="FX3" t="inlineStr"/>
+      <c r="FY3" t="inlineStr"/>
+      <c r="FZ3" t="inlineStr"/>
+      <c r="GA3" t="inlineStr"/>
+      <c r="GB3" t="inlineStr"/>
+      <c r="GC3" t="inlineStr"/>
+      <c r="GD3" t="inlineStr"/>
+      <c r="GE3" t="inlineStr"/>
+      <c r="GF3" t="inlineStr"/>
+      <c r="GG3" t="inlineStr"/>
+      <c r="GH3" t="inlineStr"/>
+      <c r="GI3" t="inlineStr"/>
+      <c r="GJ3" t="inlineStr"/>
+      <c r="GK3" t="inlineStr"/>
+      <c r="GL3" t="inlineStr"/>
+      <c r="GM3" t="inlineStr"/>
+      <c r="GN3" t="inlineStr"/>
+      <c r="GO3" t="inlineStr"/>
+      <c r="GP3" t="inlineStr"/>
+      <c r="GQ3" t="inlineStr"/>
+      <c r="GR3" t="inlineStr"/>
+      <c r="GS3" t="inlineStr"/>
+      <c r="GT3" t="inlineStr"/>
+      <c r="GU3" t="inlineStr"/>
+      <c r="GV3" t="inlineStr"/>
+      <c r="GW3" t="inlineStr"/>
+      <c r="GX3" t="inlineStr"/>
+      <c r="GY3" t="inlineStr"/>
+      <c r="GZ3" t="inlineStr"/>
+      <c r="HA3" t="inlineStr"/>
+      <c r="HB3" t="inlineStr"/>
+      <c r="HC3" t="inlineStr"/>
+      <c r="HD3" t="inlineStr"/>
+      <c r="HE3" t="inlineStr"/>
+      <c r="HF3" t="inlineStr"/>
+      <c r="HG3" t="inlineStr"/>
+      <c r="HH3" t="inlineStr"/>
+      <c r="HI3" t="inlineStr"/>
+      <c r="HJ3" t="inlineStr"/>
+      <c r="HK3" t="inlineStr"/>
+      <c r="HL3" t="inlineStr"/>
+      <c r="HM3" t="inlineStr"/>
+      <c r="HN3" t="inlineStr"/>
+      <c r="HO3" t="inlineStr"/>
+      <c r="HP3" t="inlineStr"/>
+      <c r="HQ3" t="inlineStr"/>
+      <c r="HR3" t="inlineStr"/>
+      <c r="HS3" t="inlineStr"/>
+      <c r="HT3" t="inlineStr"/>
+      <c r="HU3" t="inlineStr"/>
+      <c r="HV3" t="inlineStr"/>
+      <c r="HW3" t="inlineStr"/>
+      <c r="HX3" t="inlineStr"/>
+      <c r="HY3" t="inlineStr"/>
+      <c r="HZ3" t="inlineStr"/>
+      <c r="IA3" t="inlineStr"/>
+      <c r="IB3" t="inlineStr"/>
+      <c r="IC3" t="inlineStr"/>
+      <c r="ID3" t="inlineStr"/>
+      <c r="IE3" t="inlineStr"/>
+      <c r="IF3" t="inlineStr"/>
+      <c r="IG3" t="inlineStr"/>
+      <c r="IH3" t="inlineStr"/>
+      <c r="II3" t="inlineStr"/>
+      <c r="IJ3" t="inlineStr"/>
+      <c r="IK3" t="inlineStr"/>
+      <c r="IL3" t="inlineStr"/>
+      <c r="IM3" t="inlineStr"/>
+      <c r="IN3" t="inlineStr"/>
+      <c r="IO3" t="inlineStr"/>
+      <c r="IP3" t="inlineStr"/>
+      <c r="IQ3" t="inlineStr"/>
+      <c r="IR3" t="inlineStr"/>
+      <c r="IS3" t="inlineStr"/>
+      <c r="IT3" t="inlineStr"/>
+      <c r="IU3" t="inlineStr"/>
+      <c r="IV3" t="inlineStr"/>
+      <c r="IW3" t="inlineStr"/>
+      <c r="IX3" t="inlineStr"/>
+      <c r="IY3" t="inlineStr"/>
+      <c r="IZ3" t="inlineStr"/>
+      <c r="JA3" t="inlineStr"/>
+      <c r="JB3" t="inlineStr"/>
+      <c r="JC3" t="inlineStr"/>
+      <c r="JD3" t="inlineStr"/>
+      <c r="JE3" t="inlineStr"/>
+      <c r="JF3" t="inlineStr"/>
+      <c r="JG3" t="inlineStr"/>
+      <c r="JH3" t="inlineStr"/>
+      <c r="JI3" t="inlineStr"/>
+      <c r="JJ3" t="inlineStr"/>
+      <c r="JK3" t="inlineStr"/>
+      <c r="JL3" t="inlineStr"/>
+      <c r="JM3" t="inlineStr"/>
+      <c r="JN3" t="inlineStr"/>
+      <c r="JO3" t="inlineStr"/>
+      <c r="JP3" t="inlineStr"/>
+      <c r="JQ3" t="inlineStr"/>
+      <c r="JR3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
